--- a/final-framework-testng/target/classes/RetailTestcasesData.xlsx
+++ b/final-framework-testng/target/classes/RetailTestcasesData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VandanaKapoor\git\ManipalUpskillProject_\final-framework-testng\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VandanaKapoor\git\ManipalUpskillProject\final-framework-testng\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B462C-C5BE-4A4C-A25E-478D12AFC5EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12F39C-FAC4-4D6E-A828-F2FA66D8DD79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Tester1</t>
   </si>
@@ -40,13 +40,10 @@
     <t>Test</t>
   </si>
   <si>
-    <t>meet2prashant@gmail.com</t>
-  </si>
-  <si>
     <t>Chikchik@123</t>
   </si>
   <si>
-    <t>abc@test.com</t>
+    <t>abc1@test.com</t>
   </si>
 </sst>
 </file>
@@ -411,9 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0F7A48-AA6B-40D1-A5AE-5CBA6885E3ED}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -425,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -446,25 +441,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4560F10D-A98E-4325-933A-1B6E1D100E2D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{84C80F59-3C5D-4DFF-8A6C-67CAFE0FA0C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final-framework-testng/target/classes/RetailTestcasesData.xlsx
+++ b/final-framework-testng/target/classes/RetailTestcasesData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VandanaKapoor\git\ManipalUpskillProject\final-framework-testng\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12F39C-FAC4-4D6E-A828-F2FA66D8DD79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A54D81-94E0-4B3A-8034-7423AC4082A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="3" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="UsersData" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Tester1</t>
   </si>
@@ -44,6 +46,36 @@
   </si>
   <si>
     <t>abc1@test.com</t>
+  </si>
+  <si>
+    <t>Test1234</t>
+  </si>
+  <si>
+    <t>Test1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>www.gmail.com</t>
+  </si>
+  <si>
+    <t>Runfast7#123</t>
+  </si>
+  <si>
+    <t>Test launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New </t>
+  </si>
+  <si>
+    <t>Electronic city</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>yeshwanthapur</t>
   </si>
 </sst>
 </file>
@@ -408,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0F7A48-AA6B-40D1-A5AE-5CBA6885E3ED}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -463,4 +495,102 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0A2F50-2D9E-4246-A900-EE02831791F9}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{908B6F33-C536-4510-962F-DF373D3924F0}"/>
+    <hyperlink ref="E1" r:id="rId2" xr:uid="{9AB7CFC9-10E7-4E44-801B-271295EFD07F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92063B73-3C45-40DE-A825-1ECE6091888A}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <v>120</v>
+      </c>
+      <c r="J1">
+        <v>56</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final-framework-testng/target/classes/RetailTestcasesData.xlsx
+++ b/final-framework-testng/target/classes/RetailTestcasesData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VandanaKapoor\git\ManipalUpskillProject\final-framework-testng\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A54D81-94E0-4B3A-8034-7423AC4082A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A112DF-0855-4681-AE7A-C959E80E45C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="3" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="UsersData" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Tester1</t>
   </si>
@@ -63,9 +64,6 @@
     <t>Runfast7#123</t>
   </si>
   <si>
-    <t>Test launch</t>
-  </si>
-  <si>
     <t xml:space="preserve">New </t>
   </si>
   <si>
@@ -76,6 +74,21 @@
   </si>
   <si>
     <t>yeshwanthapur</t>
+  </si>
+  <si>
+    <t>Test launch1234</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>selenium@gmail.com</t>
+  </si>
+  <si>
+    <t>apartment</t>
+  </si>
+  <si>
+    <t>looking for apartment</t>
   </si>
 </sst>
 </file>
@@ -501,9 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0A2F50-2D9E-4246-A900-EE02831791F9}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -546,9 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92063B73-3C45-40DE-A825-1ECE6091888A}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -557,7 +566,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>50000</v>
@@ -566,19 +575,19 @@
         <v>200</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1">
         <v>120</v>
@@ -593,4 +602,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE113B0-8D53-4D0A-84AC-42B47FD5BAC1}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1">
+        <v>40000</v>
+      </c>
+      <c r="F1">
+        <v>2000</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{22922251-FBD8-4ABB-A4F3-EE4745977FEB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final-framework-testng/target/classes/RetailTestcasesData.xlsx
+++ b/final-framework-testng/target/classes/RetailTestcasesData.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VandanaKapoor\git\ManipalUpskillProject\final-framework-testng\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A112DF-0855-4681-AE7A-C959E80E45C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E81183-3984-4F26-B798-642319F86627}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="3" activeTab="5" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="UsersData" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="UserValidRegistration" sheetId="1" r:id="rId1"/>
+    <sheet name="UserLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="UsersAdminData" sheetId="3" r:id="rId3"/>
+    <sheet name="NewpropertyDetails" sheetId="4" r:id="rId4"/>
+    <sheet name="InquireMortgatgeCalc" sheetId="5" r:id="rId5"/>
+    <sheet name="UserInvalidRegistration" sheetId="7" r:id="rId6"/>
+    <sheet name="DonecInquiry" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Tester1</t>
   </si>
@@ -89,6 +91,60 @@
   </si>
   <si>
     <t>looking for apartment</t>
+  </si>
+  <si>
+    <t>manzoor@gmail.com</t>
+  </si>
+  <si>
+    <t>manzoor mehadi</t>
+  </si>
+  <si>
+    <t>alex@gmail.com</t>
+  </si>
+  <si>
+    <t>mariya</t>
+  </si>
+  <si>
+    <t>alex hales</t>
+  </si>
+  <si>
+    <t>a@b</t>
+  </si>
+  <si>
+    <t>mehadi</t>
+  </si>
+  <si>
+    <t>a.b.c</t>
+  </si>
+  <si>
+    <t>vandana</t>
+  </si>
+  <si>
+    <t>apartments</t>
+  </si>
+  <si>
+    <t>looking for an apartments</t>
+  </si>
+  <si>
+    <t>Plots</t>
+  </si>
+  <si>
+    <t>looking for an plots</t>
+  </si>
+  <si>
+    <t>mariya@gmail.com</t>
+  </si>
+  <si>
+    <t>Vilas</t>
+  </si>
+  <si>
+    <t>looking for an vila</t>
+  </si>
+  <si>
+    <t>manzoortest</t>
+  </si>
+  <si>
+    <t>alex123</t>
   </si>
 </sst>
 </file>
@@ -120,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,14 +184,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,9 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0F7A48-AA6B-40D1-A5AE-5CBA6885E3ED}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -472,6 +550,39 @@
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0A2F50-2D9E-4246-A900-EE02831791F9}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -609,7 +722,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,4 +759,134 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAED0D2-7D3D-45DD-9C93-29A3BC3D6EF2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>56547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>76765</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>76578</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D1DB4408-86CF-4D39-BE48-36470CD471E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D09365-8777-4BA8-8336-F5A3A597F3CF}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{1421A0C9-557F-4520-96ED-0501E17922B2}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{EDA4ABFA-3DDF-4680-ADBB-5736636C20EE}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{4C96D3C4-7676-47CD-A303-01C83381DCCD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final-framework-testng/target/classes/RetailTestcasesData.xlsx
+++ b/final-framework-testng/target/classes/RetailTestcasesData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VandanaKapoor\git\ManipalUpskillProject\final-framework-testng\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E81183-3984-4F26-B798-642319F86627}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1199CB18-E47E-4AB6-8417-13A5BA404805}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="3" activeTab="5" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
   </bookViews>
   <sheets>
     <sheet name="UserValidRegistration" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Tester1</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>alex123</t>
+  </si>
+  <si>
+    <t>manzoor123@gmail.com</t>
+  </si>
+  <si>
+    <t>alex123@gmail.com</t>
+  </si>
+  <si>
+    <t>alex234@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -529,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0F7A48-AA6B-40D1-A5AE-5CBA6885E3ED}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,8 +562,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="A2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -564,8 +573,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="A3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
@@ -575,8 +584,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -588,6 +597,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{2BF6B34B-178E-453D-B4EB-3553812FD355}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{10E780D8-9995-4AC5-A01A-D17500D46F1F}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{931DC91C-82B9-4A89-9168-2165CD1F1989}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{76644981-0FAD-4C65-8049-DB3B79B8AEE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -765,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAED0D2-7D3D-45DD-9C93-29A3BC3D6EF2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/final-framework-testng/target/classes/RetailTestcasesData.xlsx
+++ b/final-framework-testng/target/classes/RetailTestcasesData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VandanaKapoor\git\ManipalUpskillProject\final-framework-testng\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1199CB18-E47E-4AB6-8417-13A5BA404805}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CEF639-B3A7-4064-A869-8B176747CCF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="4" activeTab="7" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
   </bookViews>
   <sheets>
     <sheet name="UserValidRegistration" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="InquireMortgatgeCalc" sheetId="5" r:id="rId5"/>
     <sheet name="UserInvalidRegistration" sheetId="7" r:id="rId6"/>
     <sheet name="DonecInquiry" sheetId="9" r:id="rId7"/>
+    <sheet name="UsersIncorrectDetails" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Tester1</t>
   </si>
@@ -154,6 +155,24 @@
   </si>
   <si>
     <t>alex234@gmail.com</t>
+  </si>
+  <si>
+    <t>Test1234@</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>Alex@123#$%23</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -213,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -221,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0F7A48-AA6B-40D1-A5AE-5CBA6885E3ED}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -635,10 +655,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0A2F50-2D9E-4246-A900-EE02831791F9}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +669,7 @@
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -667,6 +687,9 @@
       </c>
       <c r="F1" t="s">
         <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -901,4 +924,81 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989BB8EC-E932-4F4C-A9EE-B234F3EBD113}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{49C336F7-BB1B-4810-840F-6486EBDCD6C1}"/>
+    <hyperlink ref="E1" r:id="rId2" xr:uid="{E6E4ABF9-BA48-485D-8D84-B7D9C9EC0C32}"/>
+    <hyperlink ref="B2" r:id="rId3" display="alex@gmail.com" xr:uid="{8DCDC5BE-47BF-45BA-BCB4-DE23400B9493}"/>
+    <hyperlink ref="E2:E3" r:id="rId4" display="www.google.com" xr:uid="{51D5623D-0888-458D-9E15-999FF2B09787}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{6630DF46-BFD8-4C5D-8B56-0E4BA0881EFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final-framework-testng/target/classes/RetailTestcasesData.xlsx
+++ b/final-framework-testng/target/classes/RetailTestcasesData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VandanaKapoor\git\ManipalUpskillProject\final-framework-testng\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CEF639-B3A7-4064-A869-8B176747CCF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E289EDD9-B436-4D60-BF01-223668C12B0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="4" activeTab="7" xr2:uid="{3050079E-1AC9-4733-A645-5F7107A7FE03}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Tester1</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Customer</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>Raj123#Mariya</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +937,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,21 +989,36 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{49C336F7-BB1B-4810-840F-6486EBDCD6C1}"/>
     <hyperlink ref="E1" r:id="rId2" xr:uid="{E6E4ABF9-BA48-485D-8D84-B7D9C9EC0C32}"/>
     <hyperlink ref="B2" r:id="rId3" display="alex@gmail.com" xr:uid="{8DCDC5BE-47BF-45BA-BCB4-DE23400B9493}"/>
-    <hyperlink ref="E2:E3" r:id="rId4" display="www.google.com" xr:uid="{51D5623D-0888-458D-9E15-999FF2B09787}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{51D5623D-0888-458D-9E15-999FF2B09787}"/>
     <hyperlink ref="F2" r:id="rId5" xr:uid="{6630DF46-BFD8-4C5D-8B56-0E4BA0881EFD}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{0A113288-0C1C-46E4-9AE9-CBE37D1E5039}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
